--- a/spliced/falling/2023-03-25_17-56-04/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-04/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.4331760406494141</v>
+        <v>-0.6957695484161374</v>
       </c>
       <c r="B2" t="n">
-        <v>1.524660766124726</v>
+        <v>1.588029444217682</v>
       </c>
       <c r="C2" t="n">
-        <v>1.148605212569236</v>
+        <v>1.020436197519302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3733081817626966</v>
+        <v>-0.4331760406494141</v>
       </c>
       <c r="B3" t="n">
-        <v>1.395935773849488</v>
+        <v>1.524660766124726</v>
       </c>
       <c r="C3" t="n">
-        <v>1.908020853996279</v>
+        <v>1.148605212569236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9485191106796277</v>
+        <v>-0.3733081817626966</v>
       </c>
       <c r="B4" t="n">
-        <v>1.76411008834839</v>
+        <v>1.395935773849488</v>
       </c>
       <c r="C4" t="n">
-        <v>2.944827482104304</v>
+        <v>1.908020853996279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.393463373184205</v>
+        <v>-0.9485191106796277</v>
       </c>
       <c r="B5" t="n">
-        <v>1.543532192707062</v>
+        <v>1.76411008834839</v>
       </c>
       <c r="C5" t="n">
-        <v>3.777262568473817</v>
+        <v>2.944827482104304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.7527374625206</v>
+        <v>-1.393463373184205</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9714637398719776</v>
+        <v>1.543532192707062</v>
       </c>
       <c r="C6" t="n">
-        <v>4.131629109382629</v>
+        <v>3.777262568473817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.943279504776003</v>
+        <v>-1.7527374625206</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2452936768531791</v>
+        <v>0.9714637398719776</v>
       </c>
       <c r="C7" t="n">
-        <v>4.232949018478394</v>
+        <v>4.131629109382629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.76435226202011</v>
+        <v>-2.943279504776003</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9894824773073276</v>
+        <v>0.2452936768531791</v>
       </c>
       <c r="C8" t="n">
-        <v>3.341848820447916</v>
+        <v>4.232949018478394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.01425111293788817</v>
+        <v>-3.76435226202011</v>
       </c>
       <c r="B9" t="n">
-        <v>1.767028868198381</v>
+        <v>0.9894824773073276</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.569932878017464</v>
+        <v>3.341848820447916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.34391605854027</v>
+        <v>-0.01425111293788817</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5457401573657639</v>
+        <v>1.767028868198381</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.302204966545009</v>
+        <v>-1.569932878017464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-11.97496986389153</v>
+        <v>7.34391605854027</v>
       </c>
       <c r="B11" t="n">
-        <v>8.297744750976534</v>
+        <v>-0.5457401573657639</v>
       </c>
       <c r="C11" t="n">
-        <v>15.6360607147216</v>
+        <v>-8.302204966545009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.999401926994334</v>
+        <v>-11.97496986389153</v>
       </c>
       <c r="B12" t="n">
-        <v>1.987441882491108</v>
+        <v>8.297744750976534</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.899090290069591</v>
+        <v>15.6360607147216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.015434503555293</v>
+        <v>3.999401926994334</v>
       </c>
       <c r="B13" t="n">
-        <v>2.558928638696672</v>
+        <v>1.987441882491108</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2935100495815224</v>
+        <v>-1.899090290069591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5337359905242919</v>
+        <v>2.015434503555293</v>
       </c>
       <c r="B14" t="n">
-        <v>2.63483315706253</v>
+        <v>2.558928638696672</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1261084899306326</v>
+        <v>-0.2935100495815224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.104637145996096</v>
+        <v>0.5337359905242919</v>
       </c>
       <c r="B15" t="n">
-        <v>1.630028188228604</v>
+        <v>2.63483315706253</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8494508564472198</v>
+        <v>-0.1261084899306326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.313743948936482</v>
+        <v>1.104637145996096</v>
       </c>
       <c r="B16" t="n">
-        <v>1.221044480800631</v>
+        <v>1.630028188228604</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.651125282049184</v>
+        <v>-0.8494508564472198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.144322872161865</v>
+        <v>-1.313743948936482</v>
       </c>
       <c r="B17" t="n">
-        <v>1.553820222616196</v>
+        <v>1.221044480800631</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.058750659227372</v>
+        <v>-1.651125282049184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.258464217185967</v>
+        <v>-5.144322872161865</v>
       </c>
       <c r="B18" t="n">
-        <v>1.119151741266259</v>
+        <v>1.553820222616196</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6321565061807609</v>
+        <v>-2.058750659227372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5062999725341749</v>
+        <v>-1.258464217185967</v>
       </c>
       <c r="B19" t="n">
-        <v>3.225210666656487</v>
+        <v>1.119151741266259</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02823758125305291</v>
+        <v>0.6321565061807609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.5733692646026665</v>
+        <v>0.5062999725341749</v>
       </c>
       <c r="B20" t="n">
-        <v>1.683094680309288</v>
+        <v>3.225210666656487</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3010409921407713</v>
+        <v>0.02823758125305291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.4257340431213359</v>
+        <v>-0.5733692646026665</v>
       </c>
       <c r="B21" t="n">
-        <v>1.845006287097933</v>
+        <v>1.683094680309288</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8945446908474008</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.06665813922882169</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.836877554655074</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7217497229576104</v>
+        <v>0.3010409921407713</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-56-04/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-04/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.6957695484161374</v>
+        <v>-1.275631546974182</v>
       </c>
       <c r="B2" t="n">
-        <v>1.588029444217682</v>
+        <v>1.748281717300415</v>
       </c>
       <c r="C2" t="n">
-        <v>1.020436197519302</v>
+        <v>0.7527783811092381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4331760406494141</v>
+        <v>-1.113769233226775</v>
       </c>
       <c r="B3" t="n">
-        <v>1.524660766124726</v>
+        <v>1.769958406686783</v>
       </c>
       <c r="C3" t="n">
-        <v>1.148605212569236</v>
+        <v>1.082688376307487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3733081817626966</v>
+        <v>0.6056947708129873</v>
       </c>
       <c r="B4" t="n">
-        <v>1.395935773849488</v>
+        <v>1.413846492767334</v>
       </c>
       <c r="C4" t="n">
-        <v>1.908020853996279</v>
+        <v>1.041245818138122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9485191106796277</v>
+        <v>-0.2511940002441411</v>
       </c>
       <c r="B5" t="n">
-        <v>1.76411008834839</v>
+        <v>1.83873063325882</v>
       </c>
       <c r="C5" t="n">
-        <v>2.944827482104304</v>
+        <v>0.5010688602924345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.393463373184205</v>
+        <v>-0.7442607879638676</v>
       </c>
       <c r="B6" t="n">
-        <v>1.543532192707062</v>
+        <v>1.761505782604217</v>
       </c>
       <c r="C6" t="n">
-        <v>3.777262568473817</v>
+        <v>0.9367214739322666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.7527374625206</v>
+        <v>-0.8476336002349854</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9714637398719776</v>
+        <v>1.69824892282486</v>
       </c>
       <c r="C7" t="n">
-        <v>4.131629109382629</v>
+        <v>0.9451412782073016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.943279504776003</v>
+        <v>-0.6413483619689934</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2452936768531791</v>
+        <v>1.650843858718872</v>
       </c>
       <c r="C8" t="n">
-        <v>4.232949018478394</v>
+        <v>0.9322790801525122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.76435226202011</v>
+        <v>-0.5721501111984255</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9894824773073276</v>
+        <v>1.609763711690903</v>
       </c>
       <c r="C9" t="n">
-        <v>3.341848820447916</v>
+        <v>1.015784159302711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.01425111293788817</v>
+        <v>-0.6957695484161374</v>
       </c>
       <c r="B10" t="n">
-        <v>1.767028868198381</v>
+        <v>1.588029444217682</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.569932878017464</v>
+        <v>1.020436197519302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.34391605854027</v>
+        <v>-0.4331760406494141</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5457401573657639</v>
+        <v>1.524660766124726</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.302204966545009</v>
+        <v>1.148605212569236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-11.97496986389153</v>
+        <v>-0.3733081817626966</v>
       </c>
       <c r="B12" t="n">
-        <v>8.297744750976534</v>
+        <v>1.395935773849488</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6360607147216</v>
+        <v>1.908020853996279</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.999401926994334</v>
+        <v>-0.9485191106796277</v>
       </c>
       <c r="B13" t="n">
-        <v>1.987441882491108</v>
+        <v>1.76411008834839</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.899090290069591</v>
+        <v>2.944827482104304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.015434503555293</v>
+        <v>-1.393463373184205</v>
       </c>
       <c r="B14" t="n">
-        <v>2.558928638696672</v>
+        <v>1.543532192707062</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2935100495815224</v>
+        <v>3.777262568473817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5337359905242919</v>
+        <v>-1.7527374625206</v>
       </c>
       <c r="B15" t="n">
-        <v>2.63483315706253</v>
+        <v>0.9714637398719776</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1261084899306326</v>
+        <v>4.131629109382629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.104637145996096</v>
+        <v>-2.943279504776003</v>
       </c>
       <c r="B16" t="n">
-        <v>1.630028188228604</v>
+        <v>0.2452936768531791</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.8494508564472198</v>
+        <v>4.232949018478394</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.313743948936482</v>
+        <v>-3.76435226202011</v>
       </c>
       <c r="B17" t="n">
-        <v>1.221044480800631</v>
+        <v>0.9894824773073276</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.651125282049184</v>
+        <v>3.341848820447916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.144322872161865</v>
+        <v>-0.01425111293788817</v>
       </c>
       <c r="B18" t="n">
-        <v>1.553820222616196</v>
+        <v>1.767028868198381</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.058750659227372</v>
+        <v>-1.569932878017464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.258464217185967</v>
+        <v>7.34391605854027</v>
       </c>
       <c r="B19" t="n">
-        <v>1.119151741266259</v>
+        <v>-0.5457401573657639</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6321565061807609</v>
+        <v>-8.302204966545009</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5062999725341749</v>
+        <v>-11.97496986389153</v>
       </c>
       <c r="B20" t="n">
-        <v>3.225210666656487</v>
+        <v>8.297744750976534</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02823758125305291</v>
+        <v>15.6360607147216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3.999401926994334</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.987441882491108</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.899090290069591</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.015434503555293</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.558928638696672</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2935100495815224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.5337359905242919</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.63483315706253</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1261084899306326</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.104637145996096</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.630028188228604</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.8494508564472198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.313743948936482</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.221044480800631</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.651125282049184</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-5.144322872161865</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.553820222616196</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.058750659227372</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.258464217185967</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.119151741266259</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6321565061807609</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.5062999725341749</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.225210666656487</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02823758125305291</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>-0.5733692646026665</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>1.683094680309288</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>0.3010409921407713</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.4257340431213359</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.845006287097933</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8945446908474008</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.06665813922882169</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.836877554655074</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7217497229576104</v>
       </c>
     </row>
   </sheetData>
